--- a/techniqo/data_new_ticker/FLUOROCHEM.xlsx
+++ b/techniqo/data_new_ticker/FLUOROCHEM.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G230"/>
+  <dimension ref="A1:G232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8436,6 +8436,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>533</v>
+      </c>
+      <c r="C231" t="n">
+        <v>537.75</v>
+      </c>
+      <c r="D231" t="n">
+        <v>525.1</v>
+      </c>
+      <c r="E231" t="n">
+        <v>528.1</v>
+      </c>
+      <c r="F231" t="n">
+        <v>54904</v>
+      </c>
+      <c r="G231" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>530.1</v>
+      </c>
+      <c r="C232" t="n">
+        <v>537</v>
+      </c>
+      <c r="D232" t="n">
+        <v>519.5</v>
+      </c>
+      <c r="E232" t="n">
+        <v>530.35</v>
+      </c>
+      <c r="F232" t="n">
+        <v>39212</v>
+      </c>
+      <c r="G232" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/FLUOROCHEM.xlsx
+++ b/techniqo/data_new_ticker/FLUOROCHEM.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G232"/>
+  <dimension ref="A1:G234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8486,6 +8486,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>524</v>
+      </c>
+      <c r="C233" t="n">
+        <v>535.7</v>
+      </c>
+      <c r="D233" t="n">
+        <v>521.15</v>
+      </c>
+      <c r="E233" t="n">
+        <v>523.05</v>
+      </c>
+      <c r="F233" t="n">
+        <v>19121</v>
+      </c>
+      <c r="G233" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>525.05</v>
+      </c>
+      <c r="C234" t="n">
+        <v>535</v>
+      </c>
+      <c r="D234" t="n">
+        <v>525</v>
+      </c>
+      <c r="E234" t="n">
+        <v>532.15</v>
+      </c>
+      <c r="F234" t="n">
+        <v>38552</v>
+      </c>
+      <c r="G234" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
